--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="F68" sqref="F68"/>
@@ -1110,6 +1110,11 @@
           <t>Sentiment</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -1143,6 +1148,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -1176,6 +1186,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -1209,6 +1224,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -1242,6 +1262,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -1275,6 +1300,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -1308,6 +1338,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -1341,6 +1376,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1374,6 +1414,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1407,6 +1452,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1440,6 +1490,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1473,6 +1528,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1506,6 +1566,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1539,6 +1604,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1572,6 +1642,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1605,6 +1680,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1638,6 +1718,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1671,6 +1756,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1704,6 +1794,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1737,6 +1832,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1770,6 +1870,11 @@
           <t>Neutral</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1803,6 +1908,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1836,6 +1946,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1869,6 +1984,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1902,6 +2022,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1935,6 +2060,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1968,6 +2098,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -2001,6 +2136,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2034,6 +2174,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2067,6 +2212,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2100,6 +2250,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2133,6 +2288,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2167,6 +2327,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2200,6 +2365,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2233,6 +2403,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2266,6 +2441,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2299,6 +2479,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2332,6 +2517,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2365,6 +2555,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2398,6 +2593,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2431,6 +2631,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2464,6 +2669,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2493,6 +2703,11 @@
         </is>
       </c>
       <c r="G43" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>Positive</t>
         </is>
@@ -2532,6 +2747,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2565,6 +2785,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -2598,6 +2823,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -2631,6 +2861,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -2664,6 +2899,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -2697,6 +2937,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -2730,6 +2975,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -2763,6 +3013,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -2796,6 +3051,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -2829,6 +3089,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -2858,6 +3123,11 @@
         </is>
       </c>
       <c r="G54" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
@@ -2897,6 +3167,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -2930,6 +3205,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -2963,6 +3243,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -2996,6 +3281,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3029,6 +3319,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -3062,6 +3357,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -3095,6 +3395,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -3128,6 +3433,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -3161,6 +3471,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -3194,6 +3509,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -3227,6 +3547,11 @@
           <t>Neutral</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -3260,6 +3585,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -3293,6 +3623,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -3326,6 +3661,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -3359,6 +3699,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -3392,6 +3737,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -3425,6 +3775,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -3458,6 +3813,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
@@ -3491,6 +3851,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -3520,6 +3885,11 @@
         </is>
       </c>
       <c r="G74" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>Positive</t>
         </is>
@@ -3559,6 +3929,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -3593,6 +3968,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
@@ -3627,6 +4007,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
@@ -3660,6 +4045,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
@@ -3693,6 +4083,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="43.5" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
@@ -3726,6 +4121,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
@@ -3759,6 +4159,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
@@ -3793,6 +4198,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
@@ -3826,6 +4236,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
@@ -3859,6 +4274,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
@@ -3892,6 +4312,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
@@ -3925,6 +4350,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
@@ -3958,6 +4388,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -3991,6 +4426,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
@@ -4024,6 +4464,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
@@ -4057,6 +4502,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
@@ -4090,6 +4540,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
@@ -4123,6 +4578,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
@@ -4152,6 +4612,11 @@
         </is>
       </c>
       <c r="G93" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>
@@ -4171,7 +4636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="F98" sqref="F98"/>
@@ -4220,6 +4685,11 @@
           <t>Sentiment</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -4254,6 +4724,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -4287,6 +4762,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -4320,6 +4800,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -4353,6 +4838,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -4387,6 +4877,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -4420,6 +4915,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -4453,6 +4953,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -4486,6 +4991,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -4519,6 +5029,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -4552,6 +5067,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -4585,6 +5105,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -4618,6 +5143,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -4651,6 +5181,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -4684,6 +5219,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -4717,6 +5257,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -4750,6 +5295,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -4784,6 +5334,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -4817,6 +5372,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -4850,6 +5410,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -4883,6 +5448,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -4916,6 +5486,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -4949,6 +5524,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -4982,6 +5562,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -5015,6 +5600,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -5048,6 +5638,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -5081,6 +5676,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -5114,6 +5714,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -5147,6 +5752,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -5180,6 +5790,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -5213,6 +5828,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -5246,6 +5866,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -5279,6 +5904,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -5312,6 +5942,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -5345,6 +5980,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -5378,6 +6018,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -5411,6 +6056,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -5444,6 +6094,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -5477,6 +6132,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -5510,6 +6170,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -5543,6 +6208,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -5576,6 +6246,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -5609,6 +6284,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -5643,6 +6323,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -5676,6 +6361,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -5709,6 +6399,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -5742,6 +6437,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -5775,6 +6475,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -5808,6 +6513,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -5841,6 +6551,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -5874,6 +6589,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -5907,6 +6627,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -5940,6 +6665,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -5973,6 +6703,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -6006,6 +6741,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -6039,6 +6779,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -6072,6 +6817,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -6105,6 +6855,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -6138,6 +6893,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -6171,6 +6931,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -6204,6 +6969,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -6237,6 +7007,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -6270,6 +7045,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -6303,6 +7083,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -6336,6 +7121,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -6369,6 +7159,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -6402,6 +7197,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -6435,6 +7235,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -6468,6 +7273,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -6501,6 +7311,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -6534,6 +7349,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -6567,6 +7387,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
@@ -6600,6 +7425,11 @@
           <t>Neutral</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -6633,6 +7463,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
@@ -6666,6 +7501,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -6699,6 +7539,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
@@ -6732,6 +7577,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
@@ -6765,6 +7615,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
@@ -6798,6 +7653,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
@@ -6831,6 +7691,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
@@ -6864,6 +7729,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
@@ -6897,6 +7767,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
@@ -6930,6 +7805,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
@@ -6963,6 +7843,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
@@ -6996,6 +7881,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
@@ -7029,6 +7919,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
@@ -7063,6 +7958,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -7096,6 +7996,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
@@ -7129,6 +8034,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
@@ -7162,6 +8072,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
@@ -7195,6 +8110,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
@@ -7228,6 +8148,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
@@ -7261,6 +8186,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
@@ -7294,6 +8224,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
@@ -7327,6 +8262,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
@@ -7360,6 +8300,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
@@ -7393,6 +8338,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
@@ -7426,6 +8376,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
@@ -7459,6 +8414,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
@@ -7492,6 +8452,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
@@ -7525,6 +8490,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
@@ -7559,6 +8529,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="103" ht="17.25" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
@@ -7588,6 +8563,11 @@
         </is>
       </c>
       <c r="G103" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
         <is>
           <t>Positive</t>
         </is>
@@ -7607,7 +8587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -7656,6 +8636,11 @@
           <t>Sentiment</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -7689,6 +8674,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -7722,6 +8712,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -7755,6 +8750,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -7788,6 +8788,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -7821,6 +8826,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -7855,6 +8865,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -7889,6 +8904,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -7922,6 +8942,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -7955,6 +8980,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -7988,6 +9018,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -8021,6 +9056,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -8054,6 +9094,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -8087,6 +9132,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -8120,6 +9170,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -8153,6 +9208,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -8186,6 +9246,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -8219,6 +9284,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -8252,6 +9322,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -8285,6 +9360,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="43.5" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
@@ -8318,6 +9398,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -8351,6 +9436,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -8384,6 +9474,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -8417,6 +9512,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -8450,6 +9550,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -8483,6 +9588,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -8516,6 +9626,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -8549,6 +9664,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -8582,6 +9702,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -8615,6 +9740,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -8648,6 +9778,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -8681,6 +9816,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -8714,6 +9854,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -8747,6 +9892,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -8780,6 +9930,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -8813,6 +9968,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -8842,6 +10002,11 @@
         </is>
       </c>
       <c r="G37" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>Positive</t>
         </is>
@@ -8881,6 +10046,11 @@
           <t>Neutral</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -8916,6 +10086,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -8949,6 +10124,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -8982,6 +10162,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -9015,6 +10200,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -9048,6 +10238,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -9081,6 +10276,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -9114,6 +10314,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -9147,6 +10352,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -9180,6 +10390,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="43.5" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
@@ -9214,6 +10429,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -9247,6 +10467,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -9280,6 +10505,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -9313,6 +10543,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -9346,6 +10581,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -9379,6 +10619,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -9412,6 +10657,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -9445,6 +10695,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -9478,6 +10733,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -9511,6 +10771,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -9544,6 +10809,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -9577,6 +10847,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -9606,6 +10881,11 @@
         </is>
       </c>
       <c r="G60" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
@@ -9625,7 +10905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F143" sqref="F143"/>
@@ -9673,6 +10953,11 @@
           <t>Sentiment</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -9706,6 +10991,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -9739,6 +11029,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -9772,6 +11067,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -9805,6 +11105,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -9838,6 +11143,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -9871,6 +11181,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -9904,6 +11219,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -9937,6 +11257,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -9970,6 +11295,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -10003,6 +11333,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -10036,6 +11371,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -10069,6 +11409,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -10102,6 +11447,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -10135,6 +11485,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -10168,6 +11523,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -10201,6 +11561,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -10234,6 +11599,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -10263,6 +11633,11 @@
         </is>
       </c>
       <c r="G19" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Positive</t>
         </is>
@@ -10302,6 +11677,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -10335,6 +11715,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -10368,6 +11753,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -10401,6 +11791,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -10434,6 +11829,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -10467,6 +11867,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -10500,6 +11905,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -10533,6 +11943,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -10566,6 +11981,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -10599,6 +12019,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -10632,6 +12057,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -10665,6 +12095,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -10698,6 +12133,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -10731,6 +12171,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -10764,6 +12209,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -10797,6 +12247,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -10830,6 +12285,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -10863,6 +12323,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -10896,6 +12361,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -10929,6 +12399,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -10962,6 +12437,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -10995,6 +12475,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -11028,6 +12513,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -11061,6 +12551,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -11094,6 +12589,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -11127,6 +12627,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -11160,6 +12665,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="72.75" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
@@ -11193,6 +12703,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -11226,6 +12741,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -11259,6 +12779,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -11292,6 +12817,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -11325,6 +12855,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -11358,6 +12893,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -11391,6 +12931,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -11424,6 +12969,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -11457,6 +13007,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -11490,6 +13045,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -11523,6 +13083,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -11556,6 +13121,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -11589,6 +13159,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -11622,6 +13197,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -11655,6 +13235,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -11688,6 +13273,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -11722,6 +13312,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -11755,6 +13350,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -11788,6 +13388,11 @@
           <t>Neutral</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -11821,6 +13426,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -11854,6 +13464,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -11887,6 +13502,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -11920,6 +13540,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -11953,6 +13578,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -11986,6 +13616,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -12019,6 +13654,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
@@ -12052,6 +13692,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -12085,6 +13730,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
@@ -12118,6 +13768,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -12151,6 +13806,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
@@ -12180,6 +13840,11 @@
         </is>
       </c>
       <c r="G77" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>Positive</t>
         </is>
@@ -12219,6 +13884,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
@@ -12252,6 +13922,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
@@ -12285,6 +13960,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
@@ -12318,6 +13998,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
@@ -12351,6 +14036,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
@@ -12384,6 +14074,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
@@ -12417,6 +14112,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
@@ -12450,6 +14150,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
@@ -12483,6 +14188,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
@@ -12516,6 +14226,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -12549,6 +14264,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
@@ -12582,6 +14302,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
@@ -12616,6 +14341,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
@@ -12649,6 +14379,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
@@ -12682,6 +14417,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
@@ -12715,6 +14455,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
@@ -12748,6 +14493,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
@@ -12781,6 +14531,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
@@ -12814,6 +14569,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
@@ -12847,6 +14607,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
@@ -12880,6 +14645,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
@@ -12913,6 +14683,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
@@ -12946,6 +14721,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
@@ -12979,6 +14759,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
@@ -13012,6 +14797,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
@@ -13045,6 +14835,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
@@ -13078,6 +14873,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
@@ -13111,6 +14911,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
@@ -13144,6 +14949,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
@@ -13177,6 +14987,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
@@ -13210,6 +15025,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
@@ -13243,6 +15063,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
@@ -13276,6 +15101,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
@@ -13309,6 +15139,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
@@ -13342,6 +15177,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
@@ -13375,6 +15215,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
@@ -13409,6 +15254,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
@@ -13442,6 +15292,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
@@ -13475,6 +15330,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
@@ -13508,6 +15368,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
@@ -13541,6 +15406,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
@@ -13574,6 +15444,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
@@ -13607,6 +15482,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
@@ -13640,6 +15520,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
@@ -13673,6 +15558,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
@@ -13706,6 +15596,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="124" ht="43.5" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
@@ -13739,6 +15634,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
@@ -13772,6 +15672,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
@@ -13805,6 +15710,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
@@ -13838,6 +15748,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
@@ -13871,6 +15786,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
@@ -13905,6 +15825,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
@@ -13938,6 +15863,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
@@ -13971,6 +15901,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
@@ -14004,6 +15939,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
@@ -14037,6 +15977,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
@@ -14070,6 +16015,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
@@ -14103,6 +16053,11 @@
           <t>Neutral</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
@@ -14136,6 +16091,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
@@ -14169,6 +16129,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
@@ -14202,6 +16167,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
@@ -14235,6 +16205,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
@@ -14268,6 +16243,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
@@ -14301,6 +16281,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
@@ -14334,6 +16319,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="143" ht="72.75" customHeight="1">
       <c r="A143" s="2" t="inlineStr">
@@ -14367,6 +16357,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
@@ -14400,6 +16395,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
@@ -14433,6 +16433,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
@@ -14466,6 +16471,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
@@ -14499,6 +16509,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
@@ -14532,6 +16547,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
@@ -14565,6 +16585,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
@@ -14598,6 +16623,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
@@ -14631,6 +16661,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
@@ -14664,6 +16699,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
@@ -14697,6 +16737,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
@@ -14730,6 +16775,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="155" ht="57.75" customHeight="1">
       <c r="A155" s="2" t="inlineStr">
@@ -14763,6 +16813,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
@@ -14797,6 +16852,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
@@ -14830,6 +16890,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
@@ -14863,6 +16928,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
@@ -14897,6 +16967,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
@@ -14930,6 +17005,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
@@ -14963,6 +17043,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
@@ -14992,6 +17077,11 @@
         </is>
       </c>
       <c r="G162" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
         <is>
           <t>Positive</t>
         </is>
@@ -15031,6 +17121,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
@@ -15064,6 +17159,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
@@ -15097,6 +17197,11 @@
           <t>Neutral</t>
         </is>
       </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
@@ -15131,6 +17236,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
@@ -15165,6 +17275,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
@@ -15198,6 +17313,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
@@ -15231,6 +17351,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
@@ -15264,6 +17389,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
@@ -15297,6 +17427,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
@@ -15330,6 +17465,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
@@ -15363,6 +17503,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
@@ -15396,6 +17541,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
@@ -15429,6 +17579,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
@@ -15462,6 +17617,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="177" ht="57.75" customHeight="1">
       <c r="A177" s="2" t="inlineStr">
@@ -15495,6 +17655,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
@@ -15528,6 +17693,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
@@ -15561,6 +17731,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
@@ -15594,6 +17769,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
@@ -15627,6 +17807,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
@@ -15660,6 +17845,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
@@ -15693,6 +17883,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
@@ -15726,6 +17921,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
@@ -15755,6 +17955,11 @@
         </is>
       </c>
       <c r="G185" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
         <is>
           <t>Positive</t>
         </is>
@@ -15774,7 +17979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -15823,6 +18028,11 @@
           <t>Sentiment</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -15856,6 +18066,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -15890,6 +18105,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -15923,6 +18143,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -15956,6 +18181,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -15989,6 +18219,11 @@
           <t>Neutral</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -16022,6 +18257,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -16051,6 +18291,11 @@
         </is>
       </c>
       <c r="G8" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Positive</t>
         </is>
@@ -16090,6 +18335,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -16123,6 +18373,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -16156,6 +18411,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -16189,6 +18449,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -16222,6 +18487,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -16255,6 +18525,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -16288,6 +18563,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -16317,6 +18597,11 @@
         </is>
       </c>
       <c r="G16" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>
@@ -16336,7 +18621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
@@ -16385,6 +18670,11 @@
           <t>Sentiment</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -16418,6 +18708,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -16451,6 +18746,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -16484,6 +18784,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -16517,6 +18822,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -16550,6 +18860,11 @@
           <t>Neutral</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -16583,6 +18898,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -16616,6 +18936,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -16649,6 +18974,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -16682,6 +19012,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -16715,6 +19050,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -16748,6 +19088,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -16777,6 +19122,11 @@
         </is>
       </c>
       <c r="G13" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>
@@ -16796,7 +19146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F6"/>
@@ -16845,6 +19195,11 @@
           <t>Sentiment</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -16878,6 +19233,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -16911,6 +19271,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -16944,6 +19309,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -16977,6 +19347,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -17006,6 +19381,11 @@
         </is>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>
@@ -17025,7 +19405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17074,6 +19454,11 @@
           <t>Sentiment</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -17199,6 +19584,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -17301,6 +19691,11 @@
           <t>Negative</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -17334,6 +19729,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -17390,6 +19790,11 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -17419,6 +19824,11 @@
         </is>
       </c>
       <c r="G14" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -4818,7 +4822,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>JSON Error</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4826,11 +4830,19 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>JSON Error</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>JSON Error</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>JSON Error</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5587,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6114,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6603,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr.Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6797,7 +6809,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7042,7 +7054,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7602,7 +7614,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8203,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8289,7 +8301,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8497,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8688,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dosa, Dosas</t>
+          <t>Dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9473,7 +9485,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9665,7 +9677,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10291,7 +10303,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10352,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10764,7 +10776,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11236,7 +11248,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11285,7 +11297,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11983,7 +11995,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>dosa</t>
+          <t>dosa, chicken dish</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -12270,7 +12282,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -12905,7 +12917,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -12916,7 +12928,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, lunch thali</t>
+          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13113,7 +13125,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13489,7 +13501,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -14013,7 +14025,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14347,7 +14359,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14938,7 +14950,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15375,7 +15387,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15659,7 +15671,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti bhai</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16302,7 +16314,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16891,7 +16903,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16940,7 +16952,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17485,7 +17497,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17632,7 +17644,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18123,7 +18135,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18176,7 +18188,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18519,7 +18531,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18568,7 +18580,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18617,7 +18629,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19108,7 +19120,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -19589,7 +19601,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>onion rava dosai, rava onion dosai</t>
+          <t>onion rava dosai</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19681,11 +19693,7 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>gun powder</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -20923,7 +20931,7 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21114,7 +21122,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti, Tejas</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -21609,7 +21617,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21855,7 +21863,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22488,7 +22496,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22537,7 +22545,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22852,11 +22860,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>South Indian dishes, appetizers</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23771,11 +23775,7 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24136,7 +24136,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, idli</t>
+          <t>dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24284,7 +24284,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24505,7 +24505,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -24664,7 +24664,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3225,11 +3225,7 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3387,7 +3383,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3628,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4034,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4273,6 +4269,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Overall Experience</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -4887,7 +4888,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6115,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6810,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6912,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6960,7 +6961,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8248,7 +8249,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8497,7 +8498,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8849,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9486,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9678,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10254,7 +10255,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10303,7 +10304,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10352,7 +10353,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -10598,7 +10599,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11249,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11297,7 +11298,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12692,7 +12693,11 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>South Indian food</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12917,7 +12922,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13027,7 +13032,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13125,7 +13130,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13501,7 +13506,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -14070,7 +14075,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14611,7 +14616,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14944,13 +14949,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mr. Anas</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15091,7 +15096,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15338,7 +15343,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15485,7 +15490,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15676,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti bhai</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16691,7 +16696,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -17345,7 +17350,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, filter coffee</t>
+          <t>veg thaali, Filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17497,7 +17502,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18482,7 +18487,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18531,7 +18536,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18580,7 +18585,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -19601,7 +19606,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>onion rava dosai</t>
+          <t>onion rava dosai, rava onion dosai</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19693,7 +19698,11 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Gun powder</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -20106,7 +20115,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20645,7 +20654,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20882,7 +20891,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21617,7 +21626,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21661,7 +21670,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>MUFTI</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21863,7 +21872,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22141,7 +22150,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22496,7 +22505,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22757,7 +22766,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22860,7 +22869,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>South Indian dishes, appetizers</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23053,7 +23066,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23238,11 +23251,7 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>dosa</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23290,7 +23299,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23775,7 +23784,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -23869,7 +23882,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24136,7 +24149,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosa, idli</t>
+          <t>Dosa, Idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24284,7 +24297,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -24664,7 +24677,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>JSON Error</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4831,19 +4831,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>JSON Error</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>JSON Error</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>JSON Error</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5759,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -5816,7 +5808,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6912,7 +6904,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6953,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7615,7 +7607,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7668,7 +7660,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8057,7 +8049,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8204,7 +8196,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9478,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9727,7 +9719,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -10304,7 +10296,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10402,7 +10394,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -10599,7 +10591,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11241,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11298,7 +11290,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11952,7 +11944,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Ambiance</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12693,11 +12685,7 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>South Indian food</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -13032,7 +13020,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13130,7 +13118,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14075,7 +14063,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14222,7 +14210,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14604,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14949,7 +14937,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Mr. Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -15094,11 +15082,7 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Mufthi</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -15343,7 +15327,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15490,7 +15474,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16025,7 +16009,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16696,7 +16680,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -16810,7 +16794,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17502,7 +17486,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17649,7 +17633,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18487,7 +18471,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18585,7 +18569,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -19698,11 +19682,7 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Gun powder</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -20466,7 +20446,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20654,7 +20634,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20940,7 +20920,7 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21087,7 +21067,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -21387,7 +21367,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21650,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>MUFTI</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -22150,7 +22130,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22260,7 +22240,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22554,7 +22534,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23046,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23251,7 +23231,11 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23299,7 +23283,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23563,7 +23547,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23786,7 +23770,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>vex</t>
+          <t>vex}</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -23882,7 +23866,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24149,7 +24133,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, Idli</t>
+          <t>Dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24518,7 +24502,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24794,7 +24778,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3681,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3730,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5584,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5812,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6400,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>brownie kesari</t>
+          <t>brownie kesari with ice cream</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -6454,7 +6458,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6600,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mr.Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6904,7 +6908,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8200,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8245,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8494,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8792,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8845,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9862,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer pakoda, Paneer 65</t>
+          <t>paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10247,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10300,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10398,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10584,14 +10588,10 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>South Indian cuisine, North Indian dishes</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13118,7 +13118,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -13494,7 +13494,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13916,7 +13916,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14352,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis in sambar, vadai</t>
+          <t>rasam, mini idlis, sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14937,7 +14937,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mr. Anas</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -15082,7 +15082,11 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>MUFTHI</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -15274,7 +15278,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -15327,7 +15331,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15425,7 +15429,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15474,7 +15478,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16009,7 +16013,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16254,7 +16258,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16794,7 +16798,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18324,7 +18328,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18569,7 +18573,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -19109,7 +19113,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -19590,7 +19594,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>onion rava dosai, rava onion dosai</t>
+          <t>onion rava dosai</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19682,7 +19686,11 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Gun powder</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -20446,7 +20454,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -20634,7 +20642,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20871,7 +20879,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20920,7 +20928,7 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21067,7 +21075,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -21367,7 +21375,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21852,7 +21860,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21950,7 +21958,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22130,7 +22138,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22485,7 +22493,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22746,7 +22754,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22849,11 +22857,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>South Indian dishes, appetizers</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -22905,7 +22909,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -23231,11 +23235,7 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>dosa</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23283,7 +23283,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23770,7 +23770,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>vex}</t>
+          <t>vex</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -24778,7 +24778,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,11 +3225,7 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3730,7 +3726,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -3940,7 +3936,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3985,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4034,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4320,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4880,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5580,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6396,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>brownie kesari with ice cream</t>
+          <t>brownie kesari</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -6458,7 +6454,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6802,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7660,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7739,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8200,7 +8196,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8681,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dosas</t>
+          <t>dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8792,7 +8788,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9478,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9670,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9719,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10394,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -10588,7 +10584,11 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>South Indian cuisine, North Indian dishes</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>Service</t>
@@ -10769,7 +10769,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -10813,7 +10813,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -11241,7 +11241,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12685,11 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>South Indian food</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12910,7 +12914,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13208,7 +13212,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13449,7 +13453,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13916,7 +13920,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14063,7 +14067,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14210,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14937,7 +14941,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Mr. Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -15041,7 +15045,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15133,7 +15137,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -15278,7 +15282,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -15331,7 +15335,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15380,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15478,7 +15482,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15664,7 +15668,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti bhai</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16307,7 +16311,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18328,7 +18332,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18524,7 +18528,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18720,7 +18724,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19113,7 +19117,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20103,7 +20107,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20642,7 +20646,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20928,7 +20932,7 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21375,7 +21379,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21662,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>MUFTI</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21860,7 +21864,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21958,7 +21962,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22138,7 +22142,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22857,7 +22861,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>South Indian dishes, appetizers</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -22909,7 +22917,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23283,7 +23291,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23547,7 +23555,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24141,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, idli</t>
+          <t>dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24502,7 +24510,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3628,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5763,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6400,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>brownie kesari</t>
+          <t>brownie kesari with ice cream</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -6504,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6596,13 +6600,13 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr.Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7743,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8049,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8200,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8685,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>dosas</t>
+          <t>Dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8841,7 +8845,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9719,7 +9723,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10349,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10398,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10584,11 +10588,7 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>South Indian cuisine, North Indian dishes</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>Service</t>
@@ -10769,7 +10769,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11944,7 +11944,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Ambiance</t>
         </is>
       </c>
     </row>
@@ -12410,7 +12410,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12685,11 +12685,7 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>South Indian food</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12914,7 +12910,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13212,7 +13208,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13494,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -13920,7 +13916,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14018,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14067,7 +14063,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14941,13 +14937,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mr. Anas</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15045,7 +15041,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15133,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>MUFTHI</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -15433,7 +15429,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15482,7 +15478,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15664,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti bhai</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16409,7 +16405,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16606,7 +16602,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -17047,7 +17043,7 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17342,7 +17338,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, Filter coffee</t>
+          <t>veg thaali, filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17586,7 +17582,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Rajiv</t>
+          <t>Mr.Rajiv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -18132,7 +18128,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18375,7 +18371,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>Mufthi, A2B</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -18626,7 +18622,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18724,7 +18720,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18773,7 +18769,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18960,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa</t>
+          <t>masala dosa, signature sweets</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19117,7 +19113,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -19264,7 +19260,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -19690,11 +19686,7 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Gun powder</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -20646,7 +20638,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20883,7 +20875,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -20932,7 +20924,7 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21379,7 +21371,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21618,7 +21610,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21864,7 +21856,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22142,7 +22134,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22758,7 +22750,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22861,11 +22853,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>South Indian dishes, appetizers</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23243,7 +23231,11 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23336,7 +23328,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -23776,11 +23768,7 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -24141,7 +24129,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosa, idli</t>
+          <t>Dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6400,12 +6400,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>brownie kesari with ice cream</t>
+          <t>brownie kesari</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6551,13 +6551,13 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Mr Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6600,13 +6600,13 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mr.Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6655,7 +6655,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6908,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8200,7 +8200,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9862,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>paneer pakoda, Paneer 65</t>
+          <t>Paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10300,7 +10300,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -10588,10 +10588,14 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>South Indian cuisine, North Indian dishes</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -10813,7 +10817,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -11241,7 +11245,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11290,7 +11294,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11477,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Paneer chili fríes, szchwan fried rice</t>
+          <t>paneer chili fries, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -12410,7 +12414,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12910,7 +12914,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13208,7 +13212,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13306,7 +13310,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -13449,7 +13453,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -13916,7 +13920,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14018,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14210,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis in sambar, vadai</t>
+          <t>rasam, mini idlis, sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14937,13 +14941,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Mr. Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15331,7 +15335,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15664,7 +15668,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti bhai</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16405,7 +16409,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16602,7 +16606,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -16798,7 +16802,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17043,7 +17047,7 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17145,7 +17149,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17582,7 +17586,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Mr.Rajiv</t>
+          <t>Rajiv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -18371,7 +18375,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Mufthi, A2B</t>
+          <t>Mufthi, A2B team</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -18524,7 +18528,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18573,7 +18577,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18769,7 +18773,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18960,7 +18964,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa, signature sweets</t>
+          <t>masala dosa</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19113,7 +19117,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -19260,7 +19264,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20099,7 +20103,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -21371,7 +21375,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21610,7 +21614,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21654,7 +21658,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>MUFTI</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21856,7 +21860,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21954,7 +21958,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22134,7 +22138,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22538,7 +22542,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22853,7 +22857,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>South Indian dishes, appetizers</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -22905,7 +22913,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -23328,7 +23336,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23776,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -3940,7 +3940,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6551,13 +6551,13 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr Abdul</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6655,7 +6655,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6908,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8200,7 +8200,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10349,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10817,7 +10817,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -11477,7 +11477,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>paneer chili fries, szchwan fried rice</t>
+          <t>paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -11948,7 +11948,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Ambiance</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -12925,7 +12925,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
+          <t>Andhra Pelli Bhojanam, lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13122,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13310,7 +13310,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -14356,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14898,7 +14898,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mr. Anas</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -15086,11 +15086,7 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>MUFTHI</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -15335,7 +15331,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15380,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16262,7 +16258,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16802,7 +16798,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17149,7 +17145,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18132,7 +18128,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18375,7 +18371,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Mufthi, A2B team</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -18528,7 +18524,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18622,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19264,7 +19260,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -19690,7 +19686,11 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Gun powder</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -20103,7 +20103,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20642,7 +20642,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21375,7 +21375,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21614,7 +21614,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>MUFTI</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21958,7 +21958,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22493,7 +22493,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22542,7 +22542,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22754,7 +22754,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22913,7 +22913,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23555,7 +23555,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,11 +3225,7 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3387,7 +3383,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3474,11 @@
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Indian foods</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -3632,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6908,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8102,7 +8102,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8200,7 +8200,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10300,7 +10300,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10349,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -10817,7 +10817,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>paneer chili fríes, szchwan fried rice</t>
+          <t>Paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -12689,7 +12689,11 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>South Indian food</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12925,7 +12929,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, lunch thali</t>
+          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13212,7 +13216,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14026,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14898,7 +14902,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14947,7 +14951,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15086,7 +15090,11 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>MUFTHI</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -15429,7 +15437,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15664,7 +15672,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti bhai</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16258,7 +16266,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16307,7 +16315,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17338,7 +17346,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, filter coffee</t>
+          <t>veg thaali, Filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17637,7 +17645,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18573,7 +18581,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20887,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21375,7 +21383,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21614,7 +21622,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21868,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21909,7 +21917,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22138,7 +22146,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22248,7 +22256,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22493,7 +22501,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22754,7 +22762,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -23555,7 +23563,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24786,7 +24794,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3330,7 +3334,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3387,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3474,11 +3478,7 @@
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Indian foods</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -3989,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6908,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8053,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8102,7 +8102,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10588,11 +10588,7 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>South Indian cuisine, North Indian dishes</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>Service</t>
@@ -10871,7 +10867,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11241,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11572,7 +11568,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12410,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12918,7 +12914,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13126,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13502,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -14218,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14945,7 +14941,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Mr. Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -15049,7 +15045,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15482,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15672,7 +15668,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti bhai</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16806,7 +16802,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17342,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, Filter coffee</t>
+          <t>veg thaali, filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17547,7 +17543,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18136,7 +18132,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18379,7 +18375,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>Mufthi, A2B</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -18483,7 +18479,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -19696,7 +19692,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Gun powder</t>
+          <t>gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20650,7 +20646,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21034,7 +21030,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21917,7 +21913,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22113,7 +22109,7 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22501,7 +22497,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22550,7 +22546,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22762,7 +22758,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22865,11 +22861,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>South Indian dishes, appetizers</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23062,7 +23054,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23563,7 +23555,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23784,11 +23776,7 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -23882,7 +23870,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24105,7 +24093,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24518,7 +24506,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,11 +3225,7 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3334,7 +3330,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3681,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3726,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4034,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4320,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4880,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6454,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6504,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6596,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr.Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6806,7 +6802,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6904,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7047,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7198,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7607,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8049,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8147,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8245,7 +8241,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8294,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8792,7 +8788,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9670,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9813,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10103,7 +10099,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Set dosa, impossible veggie laba</t>
+          <t>set dosa, impossible veggie laba</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -10588,7 +10584,11 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>South Indian cuisine, North Indian dishes</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>Service</t>
@@ -11241,7 +11241,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12410,7 +12410,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12685,11 +12685,7 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>South Indian food</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12914,7 +12910,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13212,7 +13208,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14018,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14067,7 +14063,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14356,7 +14352,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis in sambar, vadai</t>
+          <t>rasam, mini idlis, sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14898,7 +14894,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14941,13 +14937,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mr. Anas</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15045,7 +15041,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -15335,7 +15331,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15380,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15429,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15482,7 +15478,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15664,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti bhai</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16409,7 +16405,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16802,7 +16798,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17396,7 +17392,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17490,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17543,7 +17539,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17637,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17936,7 +17932,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17979,7 +17975,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Mr.Rajiv</t>
+          <t>Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18479,7 +18475,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18573,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -19598,7 +19594,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>onion rava dosai</t>
+          <t>onion rava dosai, rava onion dosai</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19692,7 +19688,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>gun powder</t>
+          <t>Gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20107,7 +20103,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20119,7 +20115,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -20883,7 +20879,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21379,7 +21375,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21658,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>MUFTI</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21864,7 +21860,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22109,7 +22105,7 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22497,7 +22493,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22546,7 +22542,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22861,7 +22857,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>South Indian dishes, appetizers</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23054,7 +23054,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23336,7 +23336,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -23555,7 +23555,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23776,7 +23776,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex}</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -23870,7 +23874,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24093,7 +24097,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24285,7 +24289,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3985,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6504,7 +6504,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7047,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7607,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8147,7 +8147,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9670,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer pakoda, Paneer 65</t>
+          <t>Paneer 65, paneer pakoda</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10099,7 +10099,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>set dosa, impossible veggie laba</t>
+          <t>Set dosa, impossible veggie laba</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -10247,7 +10247,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Paneer chili fríes, szchwan fried rice</t>
+          <t>paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -11568,7 +11568,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -11944,7 +11944,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Ambiance</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12685,11 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>South Indian food</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12921,7 +12925,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
+          <t>Andhra Pelli Bhojanam, thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13020,7 +13024,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13669,7 +13673,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>ANAS</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -13916,7 +13920,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14018,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14063,7 +14067,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14898,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15133,7 +15137,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -15331,7 +15335,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15380,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15664,7 +15668,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti bhai</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16062,7 +16066,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16307,7 +16311,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16405,7 +16409,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16798,7 +16802,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17392,7 +17396,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17490,7 +17494,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17932,7 +17936,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -17975,7 +17979,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Rajiv</t>
+          <t>Mr.Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18573,7 +18577,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -19452,7 +19456,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19594,7 +19598,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>onion rava dosai, rava onion dosai</t>
+          <t>onion rava dosai</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19688,7 +19692,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Gun powder</t>
+          <t>gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20115,7 +20119,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20642,7 +20646,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21026,7 +21030,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21326,7 +21330,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21864,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21958,7 +21962,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22248,7 +22252,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22542,7 +22546,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22857,11 +22861,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>South Indian dishes, appetizers</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23336,7 +23336,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23555,7 +23555,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23778,7 +23778,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>vex}</t>
+          <t>vex</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -24141,7 +24141,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, idli</t>
+          <t>dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24786,7 +24786,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3383,7 +3387,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5306,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5584,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -6396,12 +6400,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>brownie kesari</t>
+          <t>brownie kesari with ice cream</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6600,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mr.Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6802,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6908,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6953,7 +6957,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8245,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8494,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8543,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8685,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dosas</t>
+          <t>dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8788,7 +8792,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9278,7 +9282,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9862,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer 65, paneer pakoda</t>
+          <t>Paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10584,11 +10588,7 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>South Indian cuisine, North Indian dishes</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>Service</t>
@@ -10813,7 +10813,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -11290,7 +11290,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>paneer chili fríes, szchwan fried rice</t>
+          <t>Paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -11944,7 +11944,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Ambiance</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12410,7 +12410,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -12925,7 +12925,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, thali</t>
+          <t>Andhra Pelli Bhojanam, lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13122,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13673,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ANAS</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -14022,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14116,7 +14116,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14356,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14459,7 +14459,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Mr. Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -15088,7 +15088,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>MUFTHI</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti bhai</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16802,7 +16802,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17445,7 +17445,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17543,7 +17543,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18132,7 +18132,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18375,7 +18375,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Mufthi, A2B</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18626,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18964,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa</t>
+          <t>masala dosa, signature sweets</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19117,7 +19117,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -19456,7 +19456,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -19692,7 +19692,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>gun powder</t>
+          <t>Gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20646,7 +20646,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20883,7 +20883,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21330,7 +21330,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21618,7 +21618,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21864,7 +21864,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22142,7 +22142,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22546,7 +22546,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22758,7 +22758,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -23098,7 +23098,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Thali, combo breakfast</t>
+          <t>Thali</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -23336,7 +23336,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -23552,7 +23552,11 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Buffet</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Overall Experience</t>
@@ -23735,7 +23739,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23776,11 +23780,7 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosa, idli</t>
+          <t>Dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24289,7 +24289,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -24786,7 +24786,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3225,11 +3225,7 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3334,7 +3330,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3383,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3726,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4320,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5580,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -6400,12 +6396,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>brownie kesari with ice cream</t>
+          <t>brownie kesari</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6504,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6553,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6602,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6802,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6953,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7047,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7198,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7607,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8200,7 +8196,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8294,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8490,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8681,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>dosas</t>
+          <t>Dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8845,7 +8841,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9090,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9478,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9670,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10247,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10765,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10813,7 +10809,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -11473,7 +11469,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Paneer chili fríes, szchwan fried rice</t>
+          <t>paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -12410,7 +12406,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12685,11 +12681,7 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>South Indian food</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12914,7 +12906,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -12925,7 +12917,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, lunch thali</t>
+          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13212,7 +13204,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13445,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14014,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14116,7 +14108,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14459,7 +14451,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15088,7 +15080,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>MUFTHI</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -16066,7 +16058,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16303,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16900,7 +16892,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17445,7 +17437,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17633,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18528,7 +18520,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18618,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18956,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa, signature sweets</t>
+          <t>masala dosa</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19117,7 +19109,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -19980,7 +19972,7 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -20119,7 +20111,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -20458,7 +20450,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20883,7 +20875,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21030,7 +21022,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21330,7 +21322,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21379,7 +21371,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21618,7 +21610,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21962,7 +21954,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22861,7 +22853,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>South Indian dishes, appetizers</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23098,7 +23094,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Thali</t>
+          <t>Thali, combo breakfast</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -23336,7 +23332,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23552,11 +23548,7 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Buffet</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>Overall Experience</t>
@@ -23739,7 +23731,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -24289,7 +24281,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24510,7 +24502,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -24786,7 +24778,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3330,7 +3334,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4087,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4827,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>JSON Error</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4831,11 +4835,19 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>JSON Error</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>JSON Error</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>JSON Error</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4892,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6504,7 +6516,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6596,13 +6608,13 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr.Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6814,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6953,7 +6965,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7059,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7198,7 +7210,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8061,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8306,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8502,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8693,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dosas</t>
+          <t>dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8841,7 +8853,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9490,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9682,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9870,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer pakoda, Paneer 65</t>
+          <t>Paneer 65, paneer pakoda</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11192,7 +11204,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11298,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11481,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>paneer chili fríes, szchwan fried rice</t>
+          <t>Paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -11564,7 +11576,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12313,7 +12325,11 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>South Indian vegan dishes</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -12684,7 +12700,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12917,7 +12933,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
+          <t>Andhra Pelli Bhojanam, lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13016,7 +13032,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13204,7 +13220,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13490,7 +13506,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -14348,7 +14364,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis in sambar, vadai</t>
+          <t>rasam, mini idlis, sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14933,13 +14949,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mr. Anas</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16680,7 +16696,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -16794,7 +16810,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16892,7 +16908,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17535,7 +17551,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17649,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18520,7 +18536,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -19448,7 +19464,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19684,7 +19700,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Gun powder</t>
+          <t>gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -19972,7 +19988,7 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20450,7 +20466,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -20875,7 +20891,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21022,7 +21038,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21322,7 +21338,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21371,7 +21387,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22244,7 +22260,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22489,7 +22505,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23287,7 +23303,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23548,7 +23564,11 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Buffet</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Overall Experience</t>
@@ -23772,7 +23792,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -24133,7 +24157,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, idli</t>
+          <t>dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24281,7 +24305,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -24502,7 +24526,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3225,11 +3225,7 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3334,7 +3330,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3681,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3940,7 +3936,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3985,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4034,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4083,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4888,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5314,7 +5310,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5592,7 +5588,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -6408,7 +6404,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>brownie kesari</t>
+          <t>brownie kesari with ice cream</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -6516,7 +6512,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6565,7 +6561,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6814,7 +6810,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6912,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6965,7 +6961,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7672,7 +7668,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7747,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8061,7 +8057,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8110,7 +8106,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8208,7 +8204,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8253,7 +8249,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8306,7 +8302,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8502,7 +8498,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8689,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>dosas</t>
+          <t>Dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9102,7 +9098,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9290,7 +9286,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9682,7 +9678,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9870,7 +9866,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer 65, paneer pakoda</t>
+          <t>Paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -9924,7 +9920,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10353,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10817,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -11204,7 +11200,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11245,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11298,7 +11294,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11481,7 +11477,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Paneer chili fríes, szchwan fried rice</t>
+          <t>paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -11952,7 +11948,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Ambiance</t>
         </is>
       </c>
     </row>
@@ -12422,7 +12418,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12700,7 +12696,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -12933,7 +12929,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, lunch thali</t>
+          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13032,7 +13028,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13130,7 +13126,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13220,7 +13216,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13502,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13677,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>ANAS</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -14222,7 +14218,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -14364,7 +14360,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14467,7 +14463,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14949,13 +14945,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Mr. Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15343,7 +15339,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15392,7 +15388,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15441,7 +15437,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16270,7 +16266,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16417,7 +16413,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16696,7 +16692,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -16810,7 +16806,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16902,13 +16898,13 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Rajiv</t>
+          <t>RAJIV</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17255,7 +17251,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17649,7 +17645,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18140,7 +18136,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18536,7 +18532,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18634,7 +18630,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -19464,7 +19460,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -19700,7 +19696,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>gun powder</t>
+          <t>Gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20654,7 +20650,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21626,7 +21622,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21666,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>MUFTI</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21970,7 +21966,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22150,7 +22146,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22260,7 +22256,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22505,7 +22501,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -23303,7 +23299,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23564,14 +23560,10 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Buffet</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23751,7 +23743,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23792,11 +23784,7 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -24157,7 +24145,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosa, idli</t>
+          <t>Dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3936,7 +3940,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4827,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>JSON Error</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4831,19 +4835,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>JSON Error</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>JSON Error</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>JSON Error</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5306,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5588,7 +5584,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -6404,7 +6400,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>brownie kesari with ice cream</t>
+          <t>brownie kesari</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -6555,7 +6551,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Mr Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -6604,7 +6600,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mr.Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6912,7 +6908,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7615,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7668,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7747,7 +7743,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8057,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8102,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8245,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8302,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9286,7 +9282,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9727,7 +9723,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9866,7 +9862,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer pakoda, Paneer 65</t>
+          <t>Paneer 65, paneer pakoda</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -9920,7 +9916,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10353,7 +10349,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -10817,7 +10813,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -11200,7 +11196,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -11294,7 +11290,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11473,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>paneer chili fríes, szchwan fried rice</t>
+          <t>paneer chili fries, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -11572,7 +11568,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11944,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Ambiance</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12418,7 +12414,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13126,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13457,7 +13453,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13677,7 +13673,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ANAS</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -13924,7 +13920,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14026,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14071,7 +14067,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14360,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis in sambar, vadai</t>
+          <t>rasam, mini idlis, sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14463,7 +14459,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14559,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15339,7 +15335,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15388,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15482,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16021,7 +16017,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16262,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16806,7 +16802,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16898,13 +16894,13 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>RAJIV</t>
+          <t>Rajiv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17251,7 +17247,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17300,7 +17296,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17400,7 +17396,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17645,7 +17641,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18136,7 +18132,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18336,7 +18332,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18630,7 +18626,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18968,7 +18964,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa</t>
+          <t>masala dosa, sweets</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -20650,7 +20646,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20887,7 +20883,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20936,7 +20932,7 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21034,7 +21030,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21127,7 +21123,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Mufti, Tejas</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -21622,7 +21618,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21868,7 +21864,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21917,7 +21913,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21966,7 +21962,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22501,7 +22497,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22762,7 +22758,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22865,11 +22861,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>South Indian dishes, appetizers</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -22921,7 +22913,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -23299,7 +23291,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23563,7 +23555,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23743,7 +23735,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -24145,7 +24137,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, idli</t>
+          <t>dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24790,7 +24782,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,11 +3225,7 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3632,7 +3628,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3985,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4034,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4083,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4320,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5302,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6303,7 +6299,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6504,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6547,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr Abdul</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -6806,7 +6802,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6904,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6953,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7047,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7607,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8049,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8102,7 +8098,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8681,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dosas</t>
+          <t>dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8792,7 +8788,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9278,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9670,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9719,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9813,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9858,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer 65, paneer pakoda</t>
+          <t>Paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10349,7 +10345,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10588,10 +10584,14 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>South Indian cuisine, North Indian dishes</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>paneer chili fries, szchwan fried rice</t>
+          <t>Paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -13453,7 +13453,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14067,7 +14067,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14559,7 +14559,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14941,13 +14941,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mr. Anas</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15088,7 +15088,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15335,7 +15335,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15482,7 +15482,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16802,7 +16802,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17296,7 +17296,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17396,7 +17396,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17445,7 +17445,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Mr.Rajiv</t>
+          <t>Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18332,7 +18332,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18528,7 +18528,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -19598,7 +19598,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>onion rava dosai</t>
+          <t>onion rava dosai, rava onion dosai</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -20107,7 +20107,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20119,7 +20119,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20932,7 +20932,7 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21123,7 +21123,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti, Tejas</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -21864,7 +21864,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21913,7 +21913,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22252,7 +22252,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22497,7 +22497,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22861,7 +22861,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>South Indian dishes, appetizers</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -22913,7 +22917,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23291,7 +23295,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23555,7 +23559,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24782,7 +24786,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4083,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6504,7 +6504,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr.Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6953,7 +6953,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7047,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8049,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8098,7 +8098,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9670,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10247,7 +10247,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10345,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11944,7 +11944,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Ambiance</t>
         </is>
       </c>
     </row>
@@ -12317,11 +12317,7 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>South Indian vegan dishes</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -12414,7 +12410,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12685,11 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>South Indian food</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13212,7 +13212,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13920,7 +13920,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14459,7 +14459,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14941,13 +14941,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Mr. Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15045,7 +15045,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15088,7 +15088,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>MUFTHI</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15384,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16017,7 +16017,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16802,7 +16802,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17445,7 +17445,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Rajiv</t>
+          <t>Mr.Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18132,7 +18132,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18528,7 +18528,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18577,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18964,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa, sweets</t>
+          <t>masala dosa</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19598,7 +19598,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>onion rava dosai, rava onion dosai</t>
+          <t>onion rava dosai</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19690,11 +19690,7 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Gun powder</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -20107,7 +20103,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20119,7 +20115,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -20883,7 +20879,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21658,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>MUFTI</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21864,7 +21860,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21962,7 +21958,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22142,7 +22138,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22252,7 +22248,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22497,7 +22493,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22546,7 +22542,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23058,7 +23054,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23243,11 +23239,7 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>dosa</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23295,7 +23287,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23340,7 +23332,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -23780,7 +23772,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -23918,7 +23914,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>paneer, subjis, sweet and sour soup, samosa, vegetable manchuri</t>
+          <t>paneer, sweet and sour soup, samosa, vegetable manchuri, subjis</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -24141,7 +24137,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosa, idli</t>
+          <t>Dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3726,7 +3730,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5584,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5763,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6504,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7198,7 +7202,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9090,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10349,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10584,14 +10588,10 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>South Indian cuisine, North Indian dishes</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -10813,7 +10813,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -11568,7 +11568,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12317,7 +12317,11 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>South Indian vegan dishes</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -12685,11 +12689,7 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>South Indian food</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13122,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13212,7 +13212,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14067,7 +14067,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -14356,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14459,7 +14459,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14898,7 +14898,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14947,7 +14947,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15045,7 +15045,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15482,7 +15482,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti bhai</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16017,7 +16017,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16311,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16802,7 +16802,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17396,7 +17396,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17494,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17788,7 +17788,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17936,7 +17936,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18185,7 +18185,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18528,7 +18528,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18577,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18964,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa</t>
+          <t>masala dosa, sweets</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19456,7 +19456,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19690,7 +19690,11 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Gun powder</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -20879,7 +20883,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21026,7 +21030,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21326,7 +21330,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21614,7 +21618,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21864,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21909,7 +21913,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22138,7 +22142,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22542,7 +22546,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22754,7 +22758,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -23054,7 +23058,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23239,7 +23243,11 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23332,7 +23340,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23914,7 +23922,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>paneer, sweet and sour soup, samosa, vegetable manchuri, subjis</t>
+          <t>paneer, subjis, sweet and sour soup, samosa, vegetable manchuri</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -24782,7 +24790,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>JSON Error</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4835,11 +4835,19 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>JSON Error</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>JSON Error</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>JSON Error</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4892,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5592,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5771,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6303,7 +6311,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6565,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6814,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7210,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7619,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8306,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8693,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>dosas</t>
+          <t>Dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9482,7 +9490,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9825,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10259,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10357,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10777,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10813,7 +10821,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -11241,7 +11249,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12317,11 +12325,7 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>South Indian vegan dishes</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -12414,7 +12418,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13024,7 +13028,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13122,7 +13126,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13502,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -13920,7 +13924,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14026,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14067,7 +14071,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14898,7 +14902,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14947,7 +14951,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15088,7 +15092,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15384,7 +15388,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15482,7 +15486,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16017,7 +16021,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16262,7 +16266,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16315,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17396,7 +17400,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17498,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17645,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17788,7 +17792,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17936,7 +17940,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18185,7 +18189,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18528,7 +18532,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18581,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18968,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa, sweets</t>
+          <t>masala dosa</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19456,7 +19460,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20107,7 +20111,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20119,7 +20123,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21330,7 +21334,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21666,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>MUFTI</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21913,7 +21917,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22497,7 +22501,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22758,7 +22762,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22861,11 +22865,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>South Indian dishes, appetizers</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23556,10 +23556,14 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Buffet</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23780,11 +23784,7 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24514,7 +24514,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -24790,7 +24790,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>JSON Error</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4835,19 +4835,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>JSON Error</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>JSON Error</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>JSON Error</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5314,7 +5306,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5592,7 +5584,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6303,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6559,7 +6551,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Mr Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -6608,7 +6600,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mr.Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6814,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7059,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7619,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7743,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8061,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9196,7 +9188,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -9490,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9825,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11241,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11576,7 +11568,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -12647,7 +12639,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12929,7 +12921,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
+          <t>Andhra Pelli Bhojanam, lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13216,7 +13208,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14218,7 +14210,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14463,7 +14455,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15092,7 +15084,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>MUFTHI</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15388,7 +15380,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15478,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17400,7 +17392,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17498,7 +17490,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17645,7 +17637,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17792,7 +17784,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17841,7 +17833,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18136,7 +18128,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18532,7 +18524,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18728,7 +18720,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19460,7 +19452,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19696,7 +19688,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Gun powder</t>
+          <t>gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20111,7 +20103,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20123,7 +20115,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -21622,7 +21614,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21666,7 +21658,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>MUFTI</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21966,7 +21958,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22146,7 +22138,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22256,7 +22248,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22865,7 +22857,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>South Indian dishes, appetizers</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23243,11 +23239,7 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>dosa</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23295,7 +23287,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23743,7 +23735,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24293,7 +24285,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -24790,7 +24782,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5584,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>brownie kesari</t>
+          <t>brownie kesari with ice cream</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr Abdul</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9862,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer pakoda, Paneer 65</t>
+          <t>Paneer 65, paneer pakoda</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11057,7 +11057,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12639,7 +12639,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12685,11 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>South Indian food</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -13208,7 +13212,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13494,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -14018,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14210,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis in sambar, vadai</t>
+          <t>rasam, mini idlis, sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14455,7 +14459,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15478,7 +15482,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15664,7 +15668,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti bhai</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16307,7 +16311,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16684,7 +16688,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -17338,7 +17342,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, filter coffee</t>
+          <t>veg thaali, Filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17392,7 +17396,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17490,7 +17494,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17784,7 +17788,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17833,7 +17837,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18128,7 +18132,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18524,7 +18528,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18720,7 +18724,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -19452,7 +19456,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20115,7 +20119,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20454,7 +20458,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21026,7 +21030,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21662,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>MUFTI</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21909,7 +21913,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21958,7 +21962,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22138,7 +22142,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22248,7 +22252,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22493,7 +22497,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22754,7 +22758,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -23054,7 +23058,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23548,11 +23552,7 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Buffet</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>Overall Experience</t>
@@ -23735,7 +23735,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -24137,7 +24137,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, idli</t>
+          <t>dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24506,7 +24506,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24782,7 +24782,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>brownie kesari with ice cream</t>
+          <t>brownie kesari</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -6508,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6551,13 +6551,13 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Mr Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8245,7 +8245,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8347,7 +8347,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dosas</t>
+          <t>dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9862,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer 65, paneer pakoda</t>
+          <t>Paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10251,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10588,10 +10588,14 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>South Indian cuisine, North Indian dishes</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -11057,7 +11061,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11245,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12685,11 +12689,7 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>South Indian food</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -13122,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14947,7 +14947,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -15335,7 +15335,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti bhai</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16066,7 +16066,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16262,7 +16262,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16311,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -17641,7 +17641,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18132,7 +18132,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18375,7 +18375,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>Mufthi, A2B</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa</t>
+          <t>masala dosa, signature sweets</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19692,7 +19692,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>gun powder</t>
+          <t>Gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20458,7 +20458,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20646,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21030,7 +21030,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21079,7 +21079,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21662,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>MUFTI</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21913,7 +21913,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -23058,7 +23058,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23243,7 +23243,11 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23555,7 +23559,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23780,7 +23784,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24137,7 +24141,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosa, idli</t>
+          <t>Dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8245,7 +8245,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8347,7 +8347,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>dosas</t>
+          <t>Dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9094,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9282,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -11572,7 +11572,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12643,7 +12643,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -12925,7 +12925,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, lunch thali</t>
+          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13122,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13212,7 +13212,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -14356,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14947,7 +14947,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15088,7 +15088,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>MUFTHI</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -15384,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16066,7 +16066,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17342,7 +17342,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, Filter coffee</t>
+          <t>veg thaali, filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17396,7 +17396,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18132,7 +18132,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18528,7 +18528,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18577,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18964,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa, signature sweets</t>
+          <t>masala dosa</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19690,11 +19690,7 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Gun powder</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -20119,7 +20115,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -20458,7 +20454,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20642,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21079,7 +21075,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -21379,7 +21375,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22109,7 +22105,7 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22758,7 +22754,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -23559,7 +23555,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23780,11 +23776,15 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -23874,7 +23874,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr Abdul</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dosas</t>
+          <t>dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9282,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10773,7 +10773,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11572,7 +11572,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -12643,7 +12643,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,11 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>South Indian food</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12914,7 +12918,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13024,7 +13028,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13122,7 +13126,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13212,7 +13216,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13457,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13502,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13677,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>ANAS</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -14022,7 +14026,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14218,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14459,7 +14463,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14947,7 +14951,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15045,7 +15049,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15088,7 +15092,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>MUFTHI</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15384,7 +15388,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15437,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15625,7 +15629,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16262,7 +16266,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16900,7 +16904,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17645,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18132,7 +18136,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18375,7 +18379,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Mufthi, A2B</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -18577,7 +18581,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18968,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa</t>
+          <t>masala dosa, sweets</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19264,7 +19268,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21375,7 +21379,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21614,7 +21618,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21864,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21958,7 +21962,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22493,7 +22497,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22857,11 +22861,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>South Indian dishes, appetizers</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -22913,7 +22913,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -23555,7 +23555,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24097,7 +24097,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24786,7 +24786,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,14 +3225,10 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3330,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3628,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3726,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4034,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4880,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6504,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6553,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6596,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr.Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6806,7 +6802,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6904,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7047,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8294,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8681,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>dosas</t>
+          <t>Dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8845,7 +8841,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9090,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9813,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9916,7 +9912,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10247,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10300,7 +10296,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10588,11 +10584,7 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>South Indian cuisine, North Indian dishes</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>Service</t>
@@ -10773,7 +10765,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11992,7 +11984,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>dosa, chicken dish</t>
+          <t>dosa</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -12689,11 +12681,7 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>South Indian food</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -13457,7 +13445,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -13502,7 +13490,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13677,7 +13665,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ANAS</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -14026,7 +14014,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14218,7 +14206,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -14463,7 +14451,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14945,13 +14933,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mr. Anas</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15049,7 +15037,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -15339,7 +15327,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15388,7 +15376,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15437,7 +15425,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15672,7 +15660,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti bhai</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16266,7 +16254,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16315,7 +16303,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17400,7 +17388,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18136,7 +18124,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18189,7 +18177,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18532,7 +18520,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18581,7 +18569,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18630,7 +18618,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18968,7 +18956,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa, sweets</t>
+          <t>masala dosa</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19694,7 +19682,11 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Gun powder</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -20107,7 +20099,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20119,7 +20111,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20638,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21379,7 +21371,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21618,7 +21610,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21654,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>MUFTI</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21864,7 +21856,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22109,7 +22101,7 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22142,7 +22134,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22497,7 +22489,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22546,7 +22538,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22758,7 +22750,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22913,7 +22905,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23054,7 +23046,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23239,11 +23231,7 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>dosa</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23776,11 +23764,7 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -23874,7 +23858,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24097,7 +24081,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24141,7 +24125,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, idli</t>
+          <t>dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24510,7 +24494,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -24669,7 +24653,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -24786,7 +24770,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4083,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mr.Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7047,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9670,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10247,7 +10247,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10345,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11940,7 +11940,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Ambiance</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12313,7 +12313,11 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>South Indian vegan dishes</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -12906,7 +12910,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13016,7 +13020,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13114,7 +13118,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13204,7 +13208,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13912,7 +13916,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14014,7 +14018,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14933,7 +14937,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Mr. Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -15376,7 +15380,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15425,7 +15429,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16794,7 +16798,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16892,7 +16896,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17388,7 +17392,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17486,7 +17490,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18177,7 +18181,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18520,7 +18524,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18618,7 +18622,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19260,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -20099,7 +20103,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20111,7 +20115,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -20450,7 +20454,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -20638,7 +20642,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21115,7 +21119,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Mufti, Tejas</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -21371,7 +21375,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21954,7 +21958,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22134,7 +22138,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22489,7 +22493,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22538,7 +22542,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22750,7 +22754,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -23046,7 +23050,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23231,7 +23235,11 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23764,7 +23772,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex}</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -24494,7 +24506,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24653,7 +24665,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -24770,7 +24782,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4083,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5759,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6953,7 +6953,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7607,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8098,7 +8098,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9621,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9670,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10247,7 +10247,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10345,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11940,7 +11940,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Ambiance</t>
         </is>
       </c>
     </row>
@@ -11984,7 +11984,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>dosa</t>
+          <t>dosa, chicken dish</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -12313,11 +12313,7 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>South Indian vegan dishes</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -13208,7 +13204,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13494,7 +13490,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -14018,7 +14014,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14210,7 +14206,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15084,7 +15080,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15380,7 +15376,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16062,7 +16058,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16684,7 +16680,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -16798,7 +16794,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17392,7 +17388,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17490,7 +17486,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17637,7 +17633,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18128,7 +18124,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18573,7 +18569,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -18622,7 +18618,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18720,7 +18716,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19260,7 +19256,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21119,7 +21115,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti, Tejas</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -21860,7 +21856,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21958,7 +21954,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22542,7 +22538,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22754,7 +22750,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22857,7 +22853,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>South Indian dishes, appetizers</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23235,11 +23235,7 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>dosa</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23287,7 +23283,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23548,10 +23544,14 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Buffet</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23774,7 +23774,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>vex}</t>
+          <t>vex</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -23870,7 +23870,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24137,7 +24137,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosa, idli</t>
+          <t>Dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24285,7 +24285,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3330,7 +3334,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3730,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5584,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5763,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6458,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6600,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr.Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6802,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6908,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6953,7 +6957,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8098,7 +8102,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8685,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dosas</t>
+          <t>dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9278,7 +9282,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9625,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9862,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer pakoda, Paneer 65</t>
+          <t>paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10247,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10584,10 +10588,14 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>South Indian cuisine, North Indian dishes</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -10765,7 +10773,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11245,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11940,7 +11948,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Ambiance</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12914,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13016,7 +13024,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13114,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -13204,7 +13212,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13490,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -14014,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14102,7 +14110,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>mufti</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -14206,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -14348,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis in sambar, vadai</t>
+          <t>rasam, mini idlis, sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14451,7 +14459,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14559,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14890,7 +14898,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14939,7 +14947,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15327,7 +15335,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15425,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15660,7 +15668,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti bhai</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16058,7 +16066,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16680,7 +16688,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -18520,7 +18528,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18618,7 +18626,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18716,7 +18724,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19264,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -19684,7 +19692,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Gun powder</t>
+          <t>gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20450,7 +20458,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21071,7 +21079,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -21654,7 +21662,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>MUFTI</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21954,7 +21962,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22244,7 +22252,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23235,7 +23243,11 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23544,14 +23556,10 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Buffet</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23870,7 +23878,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24137,7 +24145,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, idli</t>
+          <t>dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24285,7 +24293,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -24782,7 +24790,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mr.Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>dosas</t>
+          <t>Dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9282,7 +9282,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9862,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>paneer pakoda, Paneer 65</t>
+          <t>Paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10773,7 +10773,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11572,7 +11572,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13122,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13212,7 +13212,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -13920,7 +13920,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14110,7 +14110,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>mufti</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -14214,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14356,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14459,7 +14459,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14559,7 +14559,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14898,7 +14898,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15088,7 +15088,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>MUFTHI</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -15384,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti bhai</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16017,7 +16017,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16311,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17247,7 +17247,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17396,7 +17396,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17788,7 +17788,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17936,7 +17936,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18528,7 +18528,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18577,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18626,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18964,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa</t>
+          <t>masala dosa, sweets</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19692,7 +19692,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>gun powder</t>
+          <t>Gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20640,13 +20640,13 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Mr. Mufthi</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20883,7 +20883,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21079,7 +21079,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -21864,7 +21864,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22142,7 +22142,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22252,7 +22252,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22546,7 +22546,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23243,11 +23243,7 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>dosa</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23739,7 +23735,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23780,15 +23776,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23878,7 +23870,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24145,7 +24137,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosa, idli</t>
+          <t>Dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3940,7 +3940,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr.Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8102,7 +8102,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9282,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9862,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer pakoda, Paneer 65</t>
+          <t>paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10251,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10817,7 +10817,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -11245,7 +11245,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11294,7 +11294,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11572,7 +11572,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11948,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Ambiance</t>
         </is>
       </c>
     </row>
@@ -13122,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13212,7 +13212,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13304,7 +13304,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Mr. Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -14022,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14356,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis in sambar, vadai</t>
+          <t>rasam, mini idlis, sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14559,7 +14559,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14941,13 +14941,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mr. Anas</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>MUFTHI</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -15335,7 +15335,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15482,7 +15482,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16017,7 +16017,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17247,7 +17247,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17396,7 +17396,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17543,7 +17543,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17788,7 +17788,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17936,7 +17936,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18132,7 +18132,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18577,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18626,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18964,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa, sweets</t>
+          <t>masala dosa</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19264,7 +19264,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -19456,7 +19456,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -20458,7 +20458,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -20640,13 +20640,13 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>Mr. Mufthi</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20883,7 +20883,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21618,7 +21618,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22142,7 +22142,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22252,7 +22252,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22497,7 +22497,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22546,7 +22546,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22758,7 +22758,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22861,11 +22861,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>South Indian dishes, appetizers</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23102,7 +23098,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Thali, combo breakfast</t>
+          <t>Thali, combo breakfast, okra, brinjal</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -23291,7 +23287,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23555,7 +23551,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23735,7 +23731,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23776,11 +23772,15 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -24285,7 +24285,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -3940,7 +3940,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5584,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mr.Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8053,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8102,7 +8102,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9282,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9862,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>paneer pakoda, Paneer 65</t>
+          <t>Paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10251,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10817,7 +10817,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -11245,7 +11245,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11294,7 +11294,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12414,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -12925,7 +12925,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
+          <t>Andhra Pelli Bhojanam, lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13212,7 +13212,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -14356,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14559,7 +14559,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14898,7 +14898,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Mr. Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -15045,7 +15045,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16311,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -17445,7 +17445,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17494,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17936,7 +17936,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18626,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18724,7 +18724,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19264,7 +19264,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -19456,7 +19456,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20119,7 +20119,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21030,7 +21030,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21618,7 +21618,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22142,7 +22142,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22497,7 +22497,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22546,7 +22546,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22758,7 +22758,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22861,7 +22861,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>South Indian dishes, appetizers</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -22913,7 +22917,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -23098,7 +23102,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Thali, combo breakfast, okra, brinjal</t>
+          <t>Thali, combo breakfast</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -23332,7 +23336,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -23551,7 +23555,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23772,11 +23776,7 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24137,7 +24137,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, idli</t>
+          <t>dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24285,7 +24285,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Royal falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,14 +3225,10 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3330,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3628,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3726,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3985,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4083,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5580,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5759,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6504,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6547,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Mr Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -6600,7 +6596,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr.Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6806,7 +6802,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7607,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7660,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7739,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8053,7 +8049,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8245,7 +8241,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8294,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8490,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9041,7 +9037,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9090,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9670,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -11294,7 +11290,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11944,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Ambiance</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12410,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12925,7 +12921,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, lunch thali</t>
+          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13024,7 +13020,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13122,7 +13118,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13212,7 +13208,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13304,7 +13300,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr. Abdul</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -13920,7 +13916,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14018,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14356,7 +14352,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis in sambar, vadai</t>
+          <t>rasam, mini idlis, sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14898,7 +14894,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14947,7 +14943,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15045,7 +15041,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -15335,7 +15331,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15380,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15482,7 +15478,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16307,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16688,7 +16684,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -17342,7 +17338,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, filter coffee</t>
+          <t>veg thaali, Filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17445,7 +17441,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17490,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17936,7 +17932,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18185,7 +18181,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18573,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18622,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18724,7 +18720,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20119,7 +20115,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20642,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21030,7 +21026,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21079,7 +21075,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -21913,7 +21909,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22142,7 +22138,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22252,7 +22248,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22758,7 +22754,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22917,7 +22913,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23058,7 +23054,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23102,7 +23098,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Thali, combo breakfast</t>
+          <t>Thali, combo breakfast, okra, brinjal</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -23243,7 +23239,11 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23336,7 +23336,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23552,7 +23552,11 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Buffet</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Overall Experience</t>
@@ -23776,7 +23780,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex}</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -24137,7 +24145,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosa, idli</t>
+          <t>Dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Royal falooda</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2237,7 +2237,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3985,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5763,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6547,7 +6551,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr Abdul</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -6602,7 +6606,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6953,7 +6957,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8098,7 +8102,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8200,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8245,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8494,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8685,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dosas</t>
+          <t>dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9037,7 +9041,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9090,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9719,7 +9723,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10247,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10595,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -11290,7 +11294,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12410,7 +12414,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13494,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -14210,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14555,7 +14559,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14943,7 +14947,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15084,7 +15088,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15133,7 +15137,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -15331,7 +15335,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16062,7 +16066,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16307,7 +16311,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17338,7 +17342,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, Filter coffee</t>
+          <t>veg thaali, filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17490,7 +17494,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17539,7 +17543,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17637,7 +17641,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18181,7 +18185,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18622,7 +18626,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -19452,7 +19456,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -20642,7 +20646,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21075,7 +21079,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -22138,7 +22142,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22542,7 +22546,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23054,7 +23058,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23098,7 +23102,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Thali, combo breakfast, okra, brinjal</t>
+          <t>Thali, combo breakfast</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -23552,14 +23556,10 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Buffet</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23782,7 +23782,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>vex}</t>
+          <t>vex</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -23878,7 +23878,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5584,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8102,7 +8102,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8200,7 +8200,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9282,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9625,7 +9625,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10103,7 +10103,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Set dosa, impossible veggie laba</t>
+          <t>set dosa, impossible veggie laba</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -10251,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12414,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13122,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13212,7 +13212,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13673,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>ANAS</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -14116,7 +14116,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14559,7 +14559,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14947,7 +14947,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15088,7 +15088,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>MUFTHI</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>MUFTHI</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -15335,7 +15335,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16066,7 +16066,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16262,7 +16262,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16311,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16894,13 +16894,13 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Rajiv</t>
+          <t>RAJIV</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17396,7 +17396,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17494,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Mr.Rajiv</t>
+          <t>Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18332,7 +18332,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18626,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19456,7 +19456,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21030,7 +21030,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21123,7 +21123,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Mufti, Tejas</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -21662,7 +21662,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>MUFTI</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21913,7 +21913,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21962,7 +21962,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23559,7 +23559,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23780,15 +23780,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24514,7 +24510,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -3225,11 +3225,7 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3685,7 +3681,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3726,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4880,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5580,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5759,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6009,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6553,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6600,13 +6596,13 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mr.Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7607,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7660,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7902,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8049,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8294,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8490,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8681,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>dosas</t>
+          <t>Dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9282,7 +9278,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9670,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9858,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer pakoda, Paneer 65</t>
+          <t>Paneer 65, paneer pakoda</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -9916,7 +9912,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10103,7 +10099,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>set dosa, impossible veggie laba</t>
+          <t>Set dosa, impossible veggie laba</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -10349,7 +10345,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11241,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11294,7 +11290,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11944,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Ambiance</t>
         </is>
       </c>
     </row>
@@ -11992,7 +11988,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>dosa, chicken dish</t>
+          <t>dosa</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -12321,7 +12317,11 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>South Indian vegan dishes</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -14116,7 +14116,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mr. Anas</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -15335,7 +15335,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16262,7 +16262,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16894,13 +16894,13 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>RAJIV</t>
+          <t>Rajiv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17342,7 +17342,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, filter coffee</t>
+          <t>veg thaali, Filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17396,7 +17396,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17445,7 +17445,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Rajiv</t>
+          <t>Mr.Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18132,7 +18132,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18332,7 +18332,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18577,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -19690,11 +19690,7 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Gun powder</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -20119,7 +20115,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20640,7 +20636,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Mr. Mufthi</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -21030,7 +21026,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21123,7 +21119,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti, Tejas</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -21913,7 +21909,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22142,7 +22138,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22758,7 +22754,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -23058,7 +23054,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23243,11 +23239,7 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>dosa</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23780,11 +23772,15 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -24141,7 +24137,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, idli</t>
+          <t>dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24786,7 +24782,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3985,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6602,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7607,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8049,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dosas</t>
+          <t>dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9090,7 +9090,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9621,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer 65, paneer pakoda</t>
+          <t>Paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10345,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -10584,11 +10584,7 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>South Indian cuisine, North Indian dishes</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>Service</t>
@@ -11241,7 +11237,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11290,7 +11286,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11944,7 +11940,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Ambiance</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11988,7 +11984,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>dosa</t>
+          <t>dosa, chicken dish</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -12317,11 +12313,7 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>South Indian vegan dishes</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -12414,7 +12406,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13490,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13665,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ANAS</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -13920,7 +13912,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14206,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -14941,13 +14933,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Mr. Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15335,7 +15327,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15376,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15482,7 +15474,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16303,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16409,7 +16401,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17445,7 +17437,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17486,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17543,7 +17535,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18132,7 +18124,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18956,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa</t>
+          <t>masala dosa, signature sweets</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19264,7 +19256,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -19690,7 +19682,11 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>gun powder</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -20115,7 +20111,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -20454,7 +20450,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20636,13 +20632,13 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>Mr. Mufthi</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21026,7 +21022,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21654,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>MUFTI</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21860,7 +21856,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21909,7 +21905,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22248,7 +22244,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22493,7 +22489,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22542,7 +22538,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23239,7 +23235,11 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23551,7 +23551,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24285,7 +24285,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24782,7 +24782,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3330,7 +3334,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3387,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5584,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5763,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6557,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6600,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr.Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6904,7 +6908,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8147,7 +8151,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8343,7 +8347,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8641,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8792,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9090,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9719,7 +9723,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9862,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer pakoda, Paneer 65</t>
+          <t>Paneer 65, paneer pakoda</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10247,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10584,7 +10588,11 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>South Indian cuisine, North Indian dishes</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>Service</t>
@@ -10765,7 +10773,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11940,7 +11948,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Ambiance</t>
         </is>
       </c>
     </row>
@@ -12406,7 +12414,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12917,7 +12925,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
+          <t>Andhra Pelli Bhojanam, lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13016,7 +13024,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13490,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -14014,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14939,7 +14947,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15425,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15474,7 +15482,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15660,7 +15668,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti bhai</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16303,7 +16311,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16401,7 +16409,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17334,7 +17342,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, Filter coffee</t>
+          <t>veg thaali, filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17486,7 +17494,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17535,7 +17543,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17641,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18124,7 +18132,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18520,7 +18528,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18569,7 +18577,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18956,7 +18964,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa, signature sweets</t>
+          <t>masala dosa</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19256,7 +19264,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -19684,7 +19692,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>gun powder</t>
+          <t>Gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20111,7 +20119,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20450,7 +20458,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -20875,7 +20883,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21022,7 +21030,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21071,7 +21079,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -21371,7 +21379,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21856,7 +21864,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21954,7 +21962,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22244,7 +22252,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22489,7 +22497,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22853,11 +22861,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>South Indian dishes, appetizers</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23050,7 +23054,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23287,7 +23291,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23551,7 +23555,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23772,11 +23776,7 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24137,7 +24137,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosa, idli</t>
+          <t>Dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24506,7 +24506,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24782,7 +24782,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3225,11 +3225,7 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3989,7 +3985,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4083,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4320,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4880,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5580,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5759,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6396,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>brownie kesari</t>
+          <t>brownie kesari with ice cream</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -6557,7 +6553,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6655,7 +6651,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6802,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7660,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7902,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8049,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8147,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8200,7 +8196,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8294,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8641,7 +8637,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8792,7 +8788,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9278,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9478,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9670,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9719,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9858,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer 65, paneer pakoda</t>
+          <t>paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10595,7 +10591,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -10773,7 +10769,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11944,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Ambiance</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12925,7 +12921,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, lunch thali</t>
+          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13024,7 +13020,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13122,7 +13118,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13920,7 +13916,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14018,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14110,7 +14106,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>mufti</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -14947,7 +14943,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15380,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16262,7 +16258,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16307,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17543,7 +17539,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17637,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18132,7 +18128,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18185,7 +18181,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18528,7 +18524,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18573,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20642,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21030,7 +21026,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21079,7 +21075,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -21379,7 +21375,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21658,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>MUFTI</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21864,7 +21860,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22252,7 +22248,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22546,7 +22542,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22758,7 +22754,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22861,7 +22857,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>South Indian dishes, appetizers</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23239,11 +23239,7 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>dosa</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23291,7 +23287,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23555,7 +23551,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23776,7 +23772,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3330,7 +3334,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4087,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5306,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6400,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>brownie kesari with ice cream</t>
+          <t>brownie kesari</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -6504,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6596,13 +6600,13 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mr.Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6655,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6953,7 +6957,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7198,7 +7202,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7902,7 +7906,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8200,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8685,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>dosas</t>
+          <t>Dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8788,7 +8792,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9912,7 +9916,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10595,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11477,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Paneer chili fríes, szchwan fried rice</t>
+          <t>paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -12910,7 +12914,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13020,7 +13024,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13208,7 +13212,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13494,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -13916,7 +13920,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14018,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14106,7 +14110,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>mufti</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -14352,7 +14356,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis in sambar, vadai</t>
+          <t>rasam, mini idlis, sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14455,7 +14459,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14898,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15082,11 +15086,7 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>MUFTHI</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15429,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15478,7 +15478,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16258,7 +16258,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16890,7 +16890,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Rajiv</t>
+          <t>RAJIV</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -17338,7 +17338,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, filter coffee</t>
+          <t>veg thaali, Filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17392,7 +17392,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18573,7 +18573,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -19594,7 +19594,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>onion rava dosai</t>
+          <t>onion rava dosai, rava onion dosai</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19686,11 +19686,7 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Gun powder</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -19866,7 +19862,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -21026,7 +21022,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21654,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>MUFTI</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21860,7 +21856,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22248,7 +22244,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22857,11 +22853,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>South Indian dishes, appetizers</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23054,7 +23046,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23098,7 +23090,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Thali, combo breakfast</t>
+          <t>Thali, combo breakfast, okra, brinjal</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -23239,7 +23231,11 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23551,7 +23547,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23686,7 +23682,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -23772,11 +23768,7 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -24285,7 +24277,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -24506,7 +24498,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -24782,7 +24774,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2188,7 +2188,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3940,7 +3940,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>JSON Error</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4835,11 +4835,19 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>JSON Error</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>JSON Error</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>JSON Error</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5314,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5771,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6614,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6814,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6965,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7210,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7914,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8792,7 +8800,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9102,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9290,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9625,7 +9633,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9731,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9825,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9870,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>paneer pakoda, Paneer 65</t>
+          <t>Paneer 65, paneer pakoda</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -9916,7 +9924,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -10817,7 +10825,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -11477,7 +11485,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>paneer chili fríes, szchwan fried rice</t>
+          <t>Paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -13024,7 +13032,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13122,7 +13130,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13212,7 +13220,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13681,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>ANAS</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -13920,7 +13928,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14030,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14356,7 +14364,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14459,7 +14467,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14898,7 +14906,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15086,7 +15094,11 @@
           <t>Positive</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>MUFTHI</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -15278,7 +15290,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -15478,7 +15490,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15664,7 +15676,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti bhai</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16307,7 +16319,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16890,7 +16902,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>RAJIV</t>
+          <t>Rajiv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -17338,7 +17350,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, Filter coffee</t>
+          <t>veg thaali, filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17490,7 +17502,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17539,7 +17551,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17975,7 +17987,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Mr.Rajiv</t>
+          <t>Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18573,7 +18585,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -18960,7 +18972,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa</t>
+          <t>masala dosa, signature sweets</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19452,7 +19464,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19594,7 +19606,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>onion rava dosai, rava onion dosai</t>
+          <t>onion rava dosai</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19686,7 +19698,11 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Gun powder</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -19862,7 +19878,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -20111,7 +20127,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -20450,7 +20466,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20638,7 +20654,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20875,7 +20891,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21071,7 +21087,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -21654,7 +21670,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>MUFTI</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -22244,7 +22260,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23090,7 +23106,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Thali, combo breakfast, okra, brinjal</t>
+          <t>Thali, combo breakfast</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -23231,11 +23247,7 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>dosa</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23544,10 +23556,14 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Buffet</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23682,7 +23698,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23727,7 +23743,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23784,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -23862,7 +23882,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24129,7 +24149,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, idli</t>
+          <t>dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24277,7 +24297,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24498,7 +24518,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,11 +3225,7 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3940,7 +3936,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3985,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4034,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4823,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>JSON Error</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4835,19 +4831,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>JSON Error</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>JSON Error</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>JSON Error</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4880,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5759,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6504,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7619,7 +7607,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7672,7 +7660,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7914,7 +7902,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8208,7 +8196,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9290,7 +9278,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9490,7 +9478,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9621,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9731,7 +9719,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9825,7 +9813,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9870,7 +9858,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer 65, paneer pakoda</t>
+          <t>Paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10259,7 +10247,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -11485,7 +11473,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Paneer chili fríes, szchwan fried rice</t>
+          <t>paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -11956,7 +11944,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Ambiance</t>
         </is>
       </c>
     </row>
@@ -12697,7 +12685,11 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>South Indian food</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12922,7 +12914,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -13032,7 +13024,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13130,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13461,7 +13453,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13673,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ANAS</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -13928,7 +13920,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14030,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14118,7 +14110,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>mufti</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -14222,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14949,7 +14941,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mr. Anas</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -15053,7 +15045,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15290,7 +15282,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -15343,7 +15335,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15392,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15676,7 +15668,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti bhai</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -17404,7 +17396,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17502,7 +17494,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17551,7 +17543,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17987,7 +17979,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Rajiv</t>
+          <t>Mr.Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18193,7 +18185,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18383,7 +18375,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>Mufthi, A2B</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -18585,7 +18577,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18732,7 +18724,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18972,7 +18964,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa, signature sweets</t>
+          <t>masala dosa</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19464,7 +19456,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20127,7 +20119,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21087,7 +21079,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21662,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>MUFTI</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21970,7 +21962,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22150,7 +22142,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22260,7 +22252,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22766,7 +22758,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22869,7 +22861,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>South Indian dishes, appetizers</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23247,7 +23243,11 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dosa</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Value for Money</t>
@@ -23295,7 +23295,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23556,14 +23556,10 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Buffet</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23882,7 +23878,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24297,7 +24293,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3383,7 +3387,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6458,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6504,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8200,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8685,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dosas</t>
+          <t>dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9090,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9482,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9719,7 +9723,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11477,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>paneer chili fríes, szchwan fried rice</t>
+          <t>Paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -12685,11 +12689,7 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>South Indian food</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12925,7 +12925,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
+          <t>Andhra Pelli Bhojanam, thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13122,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13212,7 +13212,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -13920,7 +13920,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14110,7 +14110,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>mufti</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -14214,7 +14214,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -14559,7 +14559,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15045,7 +15045,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -15335,7 +15335,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16262,7 +16262,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16311,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17342,7 +17342,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, filter coffee</t>
+          <t>veg thaali, Filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -18332,7 +18332,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18375,7 +18375,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Mufthi, A2B</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -18724,7 +18724,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20107,7 +20107,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20458,7 +20458,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20646,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21030,7 +21030,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21864,7 +21864,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21962,7 +21962,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22497,7 +22497,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22546,7 +22546,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22758,7 +22758,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -23058,7 +23058,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23295,7 +23295,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23559,7 +23559,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23739,7 +23739,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23782,7 +23782,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>vex</t>
+          <t>vex}</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -23878,7 +23878,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24293,7 +24293,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24514,7 +24514,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -24790,7 +24790,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3225,11 +3225,7 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3387,7 +3383,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3628,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3985,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4823,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>JSON Error</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4835,11 +4831,19 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>JSON Error</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>JSON Error</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>JSON Error</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5310,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6462,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6512,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6604,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr.Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6806,7 +6810,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6961,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7615,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7668,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8689,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>dosas</t>
+          <t>Dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9094,7 +9098,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9286,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9486,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9727,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9866,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer pakoda, Paneer 65</t>
+          <t>Paneer 65, paneer pakoda</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -9916,7 +9920,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10599,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11481,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Paneer chili fríes, szchwan fried rice</t>
+          <t>paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -11948,7 +11952,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Ambiance</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13024,7 +13028,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13122,7 +13126,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13212,7 +13216,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13304,7 +13308,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Mr. Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -13673,7 +13677,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>ANAS</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -14022,7 +14026,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14559,7 +14563,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14608,7 +14612,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14945,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Mr. Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -15137,7 +15141,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -15282,7 +15286,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15437,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15672,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti bhai</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16066,7 +16070,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16262,7 +16266,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17342,7 +17346,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, Filter coffee</t>
+          <t>veg thaali, filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17445,7 +17449,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17543,7 +17547,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17936,7 +17940,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17979,7 +17983,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Mr.Rajiv</t>
+          <t>Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18132,7 +18136,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18332,7 +18336,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18581,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18630,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18968,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa</t>
+          <t>masala dosa, signature sweets</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19456,7 +19460,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -20107,7 +20111,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20119,7 +20123,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -21030,7 +21034,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21379,7 +21383,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21618,7 +21622,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21864,7 +21868,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21962,7 +21966,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22252,7 +22256,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22497,7 +22501,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22546,7 +22550,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22758,7 +22762,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22861,11 +22865,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>South Indian dishes, appetizers</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23058,7 +23058,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23559,7 +23559,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23780,11 +23780,7 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex}</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -23878,7 +23874,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24293,7 +24289,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -24514,7 +24510,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -3225,10 +3225,14 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4087,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4892,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5314,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6608,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mr.Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6810,7 +6814,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6965,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7210,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7668,7 +7672,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8057,7 +8061,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8253,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8302,7 +8306,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9825,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9866,7 +9870,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer 65, paneer pakoda</t>
+          <t>Paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -9920,7 +9924,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10259,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10825,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa</t>
+          <t>dosass, chutney, Ras malai, filter coffee, Chole bhature, masore dosa, podi masala dosa, chutneys</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -12647,7 +12651,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12918,7 +12922,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -12929,7 +12933,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, thali</t>
+          <t>Andhra Pelli Bhojanam, lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13028,7 +13032,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13308,7 +13312,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr. Abdul</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -13457,7 +13461,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13502,7 +13506,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -13677,7 +13681,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ANAS</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -14218,7 +14222,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14360,7 +14364,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis in sambar, vadai</t>
+          <t>rasam, mini idlis, sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14951,7 +14955,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15141,7 +15145,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>MUFTHI</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -15286,7 +15290,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -15388,7 +15392,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15490,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16021,7 +16025,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17449,7 +17453,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17940,7 +17944,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18581,7 +18585,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18630,7 +18634,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19460,7 +19464,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20650,7 +20654,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20887,7 +20891,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21383,7 +21387,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21622,7 +21626,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21868,7 +21872,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21917,7 +21921,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21966,7 +21970,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22146,7 +22150,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22865,7 +22869,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>South Indian dishes, appetizers</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23058,7 +23066,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23340,7 +23348,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -23559,7 +23567,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24510,7 +24518,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3225,14 +3225,10 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3330,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3628,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3681,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4034,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4083,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4823,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>JSON Error</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4835,19 +4831,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>JSON Error</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>JSON Error</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>JSON Error</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4880,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5759,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6814,7 +6802,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7059,7 +7047,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7672,7 +7660,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8253,7 +8241,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8306,7 +8294,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9102,7 +9090,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9682,7 +9670,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10596,14 +10584,10 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>South Indian cuisine, North Indian dishes</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -11580,7 +11564,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11956,7 +11940,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Ambiance</t>
         </is>
       </c>
     </row>
@@ -12651,7 +12635,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -12922,7 +12906,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -12933,7 +12917,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, lunch thali</t>
+          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13032,7 +13016,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13130,7 +13114,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13461,7 +13445,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13490,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -14030,7 +14014,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14364,7 +14348,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14949,13 +14933,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mr. Anas</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15343,7 +15327,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15392,7 +15376,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15441,7 +15425,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15676,7 +15660,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti bhai</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16025,7 +16009,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16074,7 +16058,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16270,7 +16254,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16902,13 +16886,13 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Rajiv</t>
+          <t>RAJIV</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17551,7 +17535,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17987,7 +17971,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Rajiv</t>
+          <t>Mr.Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18140,7 +18124,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18972,7 +18956,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa, signature sweets</t>
+          <t>masala dosa</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19700,7 +19684,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Gun powder</t>
+          <t>gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20115,7 +20099,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20127,7 +20111,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20654,7 +20638,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21654,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>MUFTI</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -22766,7 +22750,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22925,7 +22909,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23050,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23348,7 +23332,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23882,7 +23866,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24149,7 +24133,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosa, idli</t>
+          <t>Dosa, Idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24297,7 +24281,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3225,10 +3225,14 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3334,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5763,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6600,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr.Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6802,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7198,7 +7202,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8685,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dosas</t>
+          <t>dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9621,7 +9625,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9719,7 +9723,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9862,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer pakoda, Paneer 65</t>
+          <t>Paneer 65, paneer pakoda</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10247,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10584,7 +10588,11 @@
           <t>Sai</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>South Indian cuisine, North Indian dishes</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>Service</t>
@@ -10765,7 +10773,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11477,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>paneer chili fríes, szchwan fried rice</t>
+          <t>Paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -12681,7 +12689,11 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>South Indian food</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12917,7 +12929,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
+          <t>Andhra Pelli Bhojanam, lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13490,7 +13502,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14612,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14939,7 +14951,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15327,7 +15339,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15425,7 +15437,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15474,7 +15486,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15660,7 +15672,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti bhai</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16254,7 +16266,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16303,7 +16315,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16401,7 +16413,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16886,13 +16898,13 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>RAJIV</t>
+          <t>Rajiv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17535,7 +17547,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18124,7 +18136,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18569,7 +18581,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -19109,7 +19121,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -19684,7 +19696,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>gun powder</t>
+          <t>Gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20099,7 +20111,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20111,7 +20123,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -20875,7 +20887,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21022,7 +21034,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21115,7 +21127,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Mufti, Tejas</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -21610,7 +21622,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21654,7 +21666,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>MUFTI</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -21905,7 +21917,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21954,7 +21966,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22244,7 +22256,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22538,7 +22550,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22750,7 +22762,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22909,7 +22921,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23050,7 +23062,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23287,7 +23299,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23731,7 +23743,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24145,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, Idli</t>
+          <t>dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24281,7 +24293,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1617,7 +1617,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6160,7 +6160,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6551,13 +6551,13 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Mr Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9625,7 +9625,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9862,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Paneer 65, paneer pakoda</t>
+          <t>paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -10773,7 +10773,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -11572,7 +11572,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -11948,7 +11948,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Ambiance</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12321,7 +12321,11 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>South Indian vegan dishes</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -12414,7 +12418,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -12689,11 +12693,7 @@
           <t>Nayas</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>South Indian food</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>Service</t>
@@ -12929,7 +12929,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, lunch thali</t>
+          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13126,7 +13126,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13216,7 +13216,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13502,7 +13502,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13924,7 +13924,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14026,7 +14026,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14071,7 +14071,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14218,7 +14218,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -14360,7 +14360,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis in sambar, vadai</t>
+          <t>rasam, mini idlis, sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14945,13 +14945,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Mr. Anas</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15388,7 +15388,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15486,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15672,7 +15672,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti bhai</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16413,7 +16413,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16806,7 +16806,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17346,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, filter coffee</t>
+          <t>veg thaali, Filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17400,7 +17400,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17498,7 +17498,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17645,7 +17645,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17983,7 +17983,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Mr.Rajiv</t>
+          <t>Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18136,7 +18136,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -18581,7 +18581,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -18968,7 +18968,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa</t>
+          <t>masala dosa, sweets</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19121,7 +19121,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -19696,7 +19696,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Gun powder</t>
+          <t>gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20111,7 +20111,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20123,7 +20123,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20887,7 +20887,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21034,7 +21034,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21127,7 +21127,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti, Tejas</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -21622,7 +21622,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22550,7 +22550,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -23299,7 +23299,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23563,7 +23563,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23743,7 +23743,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23878,7 +23878,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24145,7 +24145,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosa, idli</t>
+          <t>Dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24514,7 +24514,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24790,7 +24790,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1315,7 +1315,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -3225,14 +3225,10 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Vegetarian food</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3330,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3383,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3628,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3726,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3985,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4034,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4083,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4320,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6009,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6160,7 +6156,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6553,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6596,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Mr.Abdul</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6806,7 +6802,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6904,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6953,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7047,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7607,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7660,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7739,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8053,7 +8049,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8792,7 +8788,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8841,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9090,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9813,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9862,7 +9858,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>paneer pakoda, Paneer 65</t>
+          <t>Paneer pakoda, Paneer 65</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -9916,7 +9912,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10591,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -11200,7 +11196,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11473,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Paneer chili fríes, szchwan fried rice</t>
+          <t>paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -12321,11 +12317,7 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>South Indian vegan dishes</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -13028,7 +13020,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13126,7 +13118,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14071,7 +14063,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14218,7 +14210,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14360,7 +14352,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -15388,7 +15380,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17338,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>veg thaali, Filter coffee</t>
+          <t>veg thaali, filter coffee</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -17547,7 +17539,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17645,7 +17637,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17983,7 +17975,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Rajiv</t>
+          <t>Mr.Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18136,7 +18128,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18379,7 +18371,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>Mufthi, A2B</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -18581,7 +18573,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -18728,7 +18720,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19696,7 +19688,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>gun powder</t>
+          <t>Gun powder</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20111,7 +20103,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -20462,7 +20454,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -20887,7 +20879,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22501,7 +22493,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22762,7 +22754,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -22865,11 +22857,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>South Indian dishes, appetizers</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23299,7 +23287,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23563,7 +23551,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24145,7 +24133,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dosa, idli</t>
+          <t>dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24293,7 +24281,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24790,7 +24778,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Falooda</t>
+          <t>falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2001,7 +2001,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,11 @@
           <t>Hakeem</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Vegetarian food</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Staff Friendliness</t>
@@ -3330,7 +3334,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3387,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3730,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4827,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>JSON Error</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4831,11 +4835,19 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>JSON Error</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>JSON Error</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>JSON Error</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4892,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5314,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5771,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -6547,7 +6559,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr Abdul</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -6596,7 +6608,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>Mr.Abdul</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -6904,7 +6916,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7619,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7672,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7751,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8049,7 +8061,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8306,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8502,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8693,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>dosas</t>
+          <t>Dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8788,7 +8800,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8853,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9682,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9825,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9912,7 +9924,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10603,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Menu Variety</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11208,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11485,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>paneer chili fríes, szchwan fried rice</t>
+          <t>Paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -12410,7 +12422,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13020,7 +13032,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13130,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -13208,7 +13220,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13669,7 +13681,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>ANAS</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -14018,7 +14030,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14210,7 +14222,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14364,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis in sambar, vadai</t>
+          <t>rasam, mini idlis, sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14604,7 +14616,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14943,7 +14955,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15331,7 +15343,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15380,7 +15392,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15664,7 +15676,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti bhai</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16013,7 +16025,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16062,7 +16074,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16307,7 +16319,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16405,7 +16417,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16798,7 +16810,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17392,7 +17404,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17539,7 +17551,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -18371,7 +18383,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Mufthi, A2B</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -18720,7 +18732,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -18960,7 +18972,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>masala dosa, sweets</t>
+          <t>masala dosa</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19452,7 +19464,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -20115,7 +20127,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -20454,7 +20466,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -20642,7 +20654,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20891,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21375,7 +21387,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21872,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21909,7 +21921,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -21958,7 +21970,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22493,7 +22505,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22754,7 +22766,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -23050,7 +23062,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23287,7 +23299,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -23548,7 +23560,11 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Buffet</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Overall Experience</t>
@@ -23772,7 +23788,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -23866,7 +23886,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -24281,7 +24301,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -24502,7 +24522,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -24778,7 +24798,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>falooda</t>
+          <t>Falooda</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>JSON Error</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4835,19 +4835,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>JSON Error</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>JSON Error</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>JSON Error</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5763,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -7619,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -7672,7 +7664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -8502,7 +8494,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8685,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Dosas</t>
+          <t>dosas</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8853,7 +8845,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9102,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -9825,7 +9817,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -9924,7 +9916,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -11485,7 +11477,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Paneer chili fríes, szchwan fried rice</t>
+          <t>paneer chili fries, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -12329,7 +12321,11 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>South Indian vegan dishes</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -12933,7 +12929,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
+          <t>Andhra Pelli Bhojanam, lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13175,7 +13171,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13502,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13677,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ANAS</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -14222,7 +14218,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Speed of Service</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -14364,7 +14360,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>rasam, mini idlis, sambar, vadai</t>
+          <t>rasam, mini idlis in sambar, vadai</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -14616,7 +14612,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14955,7 +14951,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -15096,7 +15092,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>MUFTHI</t>
+          <t>Mufthi</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15343,7 +15339,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15392,7 +15388,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15441,7 +15437,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15676,7 +15672,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti bhai</t>
+          <t>Mufti</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16025,7 +16021,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16074,7 +16070,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16270,7 +16266,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16902,7 +16898,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Rajiv</t>
+          <t>RAJIV</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -17404,7 +17400,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17502,7 +17498,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -17551,7 +17547,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -17987,7 +17983,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Mr.Rajiv</t>
+          <t>Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18140,7 +18136,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -19464,7 +19460,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -20654,7 +20650,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21087,7 +21083,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Portion Size</t>
         </is>
       </c>
     </row>
@@ -21970,7 +21966,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22505,7 +22501,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -22554,7 +22550,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -22921,7 +22917,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23567,7 +23563,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -23788,11 +23784,7 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -23886,7 +23878,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -24522,7 +24514,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>

--- a/A2b_January_month.xlsx
+++ b/A2b_January_month.xlsx
@@ -1266,7 +1266,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Speed of Service</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8053,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -8245,7 +8245,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9282,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Menu Variety</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -10773,7 +10773,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11294,7 +11294,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>paneer chili fries, szchwan fried rice</t>
+          <t>Paneer chili fríes, szchwan fried rice</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -12321,11 +12321,7 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>South Indian vegan dishes</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -12647,7 +12643,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -12929,7 +12925,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Andhra Pelli Bhojanam, lunch thali</t>
+          <t>Andhra Pelli Bhojanam, weekend lunch thali</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13126,7 +13122,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -13171,7 +13167,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13502,7 +13498,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Value for Money</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -13924,7 +13920,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14026,7 +14022,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -14071,7 +14067,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -14902,7 +14898,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15092,7 +15088,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Mufthi</t>
+          <t>MUFTHI</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -15388,7 +15384,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15437,7 +15433,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15482,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -15672,7 +15668,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Mufti</t>
+          <t>Mufti bhai</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -16266,7 +16262,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -16315,7 +16311,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -16413,7 +16409,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Staff Friendliness</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -16692,7 +16688,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -16898,7 +16894,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>RAJIV</t>
+          <t>Rajiv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -17645,7 +17641,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -17983,7 +17979,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Rajiv</t>
+          <t>Mr.Rajiv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18728,7 +18724,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Food Quality</t>
         </is>
       </c>
     </row>
@@ -21034,7 +21030,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -21083,7 +21079,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Portion Size</t>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
@@ -21868,7 +21864,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -21917,7 +21913,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
@@ -22146,7 +22142,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -22256,7 +22252,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22550,7 +22546,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Overall Experience</t>
+          <t>Service</t>
         </is>
       </c>
     </row>
@@ -22818,7 +22814,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spicey mint lassi, Dosas, Papadam, chutney</t>
+          <t>spicey mint lassi, Dosas, Papadam</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -22865,7 +22861,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>South Indian dishes, appetizers</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Food Quality</t>
@@ -23058,7 +23058,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23563,7 +23563,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Food Quality</t>
+          <t>Overall Experience</t>
         </is>
       </c>
     </row>
@@ -23784,7 +23784,11 @@
           <t>Negative</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vex</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -24145,7 +24149,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dosa, idli</t>
+          <t>Dosa, idli</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -24790,7 +24794,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Staff Friendliness</t>
         </is>
       </c>
     </row>
